--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F2FADC-0834-4B73-A903-343E5BAF630C}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE02410-601B-4AED-BBE9-6E1454FD9550}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05.04.2022" sheetId="41" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Refining the queryraiser and query solver.Created wireframework for login and register </t>
   </si>
   <si>
-    <t>Refining of the reviewer flow,created the wireframe for spam query report and user authorization</t>
+    <t>Refining of the reviewer flow,Started Creating  the wireframe for spam query report and user authorization</t>
   </si>
   <si>
     <t>Created Individual user flow and refined with the user stories</t>
@@ -921,7 +921,7 @@
   <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1194,10 +1194,10 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3"/>
     </row>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE02410-601B-4AED-BBE9-6E1454FD9550}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C5F8A5-5653-4EE0-BCF8-761E9EC4784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="05.04.2022" sheetId="41" r:id="rId1"/>
-    <sheet name="06.04.2022" sheetId="42" r:id="rId2"/>
+    <sheet name="Template" sheetId="44" r:id="rId1"/>
+    <sheet name="05.04.2022" sheetId="41" r:id="rId2"/>
+    <sheet name="06.04.2022" sheetId="42" r:id="rId3"/>
+    <sheet name="07.04.2022" sheetId="43" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
   <si>
     <t>Resource Name</t>
   </si>
@@ -62,6 +64,33 @@
     <t>Hours Spent - Non Project</t>
   </si>
   <si>
+    <t>Girishkumar</t>
+  </si>
+  <si>
+    <t>Gowtham</t>
+  </si>
+  <si>
+    <t>Mani Maran</t>
+  </si>
+  <si>
+    <t>Mohammed Irfan</t>
+  </si>
+  <si>
+    <t>Ponvizhi</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Ranjith</t>
+  </si>
+  <si>
+    <t>Sandhiya</t>
+  </si>
+  <si>
+    <t>Sriram</t>
+  </si>
+  <si>
     <t>Venkateshwaran</t>
   </si>
   <si>
@@ -71,45 +100,18 @@
     <t>Created User stories for individual actors</t>
   </si>
   <si>
-    <t>Mani Maran</t>
-  </si>
-  <si>
     <t xml:space="preserve">Created User stories for individual actors </t>
   </si>
   <si>
-    <t>Ponvizhi</t>
-  </si>
-  <si>
     <t>Individual Query Solver and Query Raiser</t>
   </si>
   <si>
-    <t>Mohammed Irfan</t>
-  </si>
-  <si>
-    <t>Sandhiya</t>
-  </si>
-  <si>
     <t>Creation of User Flow,Admin flow</t>
   </si>
   <si>
-    <t>Pooja</t>
-  </si>
-  <si>
-    <t>Ranjith</t>
-  </si>
-  <si>
     <t>Absent</t>
   </si>
   <si>
-    <t>Sriram</t>
-  </si>
-  <si>
-    <t>Gowtham</t>
-  </si>
-  <si>
-    <t>Girishkumar</t>
-  </si>
-  <si>
     <t>Refining of Admin flow,and started with creating wireframe for forum</t>
   </si>
   <si>
@@ -153,6 +155,12 @@
   </si>
   <si>
     <t>Created Individual user flow and refined with the user stories</t>
+  </si>
+  <si>
+    <t>Created Wireframes for forum page,query raising page,report query page and view query page.</t>
+  </si>
+  <si>
+    <t>Refined the Admin flow and started planning wireframes for forum</t>
   </si>
 </sst>
 </file>
@@ -619,6 +627,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2D5E3-4B43-48DE-B6AB-74C89F64C892}">
+  <dimension ref="B4:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="15">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" ht="15">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" ht="15">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" ht="15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" ht="15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" ht="15">
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" ht="39" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" ht="15">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" ht="15"/>
+    <row r="21" spans="2:8" ht="15"/>
+    <row r="22" spans="2:8" ht="15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E62D10-54D4-4787-A1A2-F3FE8B19A9D8}">
   <dimension ref="B4:H22"/>
   <sheetViews>
@@ -713,13 +931,13 @@
     </row>
     <row r="10" spans="2:8" ht="45.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
@@ -732,13 +950,13 @@
     </row>
     <row r="11" spans="2:8" ht="45.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
@@ -751,13 +969,13 @@
     </row>
     <row r="12" spans="2:8" ht="39" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
@@ -770,13 +988,13 @@
     </row>
     <row r="13" spans="2:8" ht="33" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -789,13 +1007,13 @@
     </row>
     <row r="14" spans="2:8" ht="33" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -808,13 +1026,13 @@
     </row>
     <row r="15" spans="2:8" ht="35.25" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -827,76 +1045,76 @@
     </row>
     <row r="16" spans="2:8" ht="25.5">
       <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="25.5">
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="25.5">
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="25.5">
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
@@ -916,12 +1134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4477B-54A4-44FB-9400-913F92230D27}">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1011,7 +1229,7 @@
     </row>
     <row r="10" spans="2:8" ht="45.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -1030,13 +1248,13 @@
     </row>
     <row r="11" spans="2:8" ht="45.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
@@ -1049,7 +1267,7 @@
     </row>
     <row r="12" spans="2:8" ht="39" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>28</v>
@@ -1068,7 +1286,7 @@
     </row>
     <row r="13" spans="2:8" ht="39.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>30</v>
@@ -1087,7 +1305,7 @@
     </row>
     <row r="14" spans="2:8" ht="44.25" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>32</v>
@@ -1106,7 +1324,7 @@
     </row>
     <row r="15" spans="2:8" ht="35.25" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>33</v>
@@ -1125,28 +1343,28 @@
     </row>
     <row r="16" spans="2:8" ht="15">
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="50.25" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>35</v>
@@ -1165,13 +1383,13 @@
     </row>
     <row r="18" spans="2:8" ht="47.25" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -1184,7 +1402,7 @@
     </row>
     <row r="19" spans="2:8" ht="46.5" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>38</v>
@@ -1211,4 +1429,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
+  <dimension ref="B4:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="15">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" ht="15">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" ht="15">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" ht="15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" ht="15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" ht="15">
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" ht="39" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" ht="15">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" ht="15"/>
+    <row r="21" spans="2:8" ht="15"/>
+    <row r="22" spans="2:8" ht="15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+</worksheet>
 </file>
--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C5F8A5-5653-4EE0-BCF8-761E9EC4784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6934D95-E35F-431C-827D-3708369E503E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="44">
   <si>
     <t>Resource Name</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Refined the Admin flow and started planning wireframes for forum</t>
+  </si>
+  <si>
+    <t>Created HomePage,Profile and article page</t>
+  </si>
+  <si>
+    <t>Refined Review flow and started with planning Wireframe for Home ,Profile and article page.</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4477B-54A4-44FB-9400-913F92230D27}">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H19"/>
     </sheetView>
   </sheetViews>
@@ -1435,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1613,11 +1619,19 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5">
+        <v>6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1.5</v>
+      </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="47.25" customHeight="1">

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E175B0-973F-4184-9363-C42E15DC60F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="06.04.2022" sheetId="42" r:id="rId3"/>
     <sheet name="07.04.2022" sheetId="43" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t>Resource Name</t>
   </si>
@@ -163,6 +162,9 @@
     <t>Refined the Admin flow and started planning wireframes for forum</t>
   </si>
   <si>
+    <t>I wrote Acceptance Criteria,dependencies and constraints for Reviewer.</t>
+  </si>
+  <si>
     <t>The wireframe for Myarticles,Published articles and Draft has been created</t>
   </si>
   <si>
@@ -179,13 +181,16 @@
   </si>
   <si>
     <t>Refined query raiser flow and started planning wireframe for Login,Register page.</t>
+  </si>
+  <si>
+    <t>Created Wireframe for Admin Dashboard and Employees page and redefined User verification page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +244,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,23 +415,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -453,23 +450,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,12 +625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2D5E3-4B43-48DE-B6AB-74C89F64C892}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -659,7 +639,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -676,7 +656,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -685,7 +665,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -694,7 +674,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -703,7 +683,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -712,7 +692,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -735,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -746,7 +726,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -757,7 +737,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -768,7 +748,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -779,7 +759,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -790,7 +770,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -801,7 +781,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -812,7 +792,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -823,7 +803,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -834,7 +814,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -845,9 +825,6 @@
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -855,14 +832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E62D10-54D4-4787-A1A2-F3FE8B19A9D8}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -871,7 +848,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -888,7 +865,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -897,7 +874,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -906,7 +883,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -915,7 +892,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -924,7 +901,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -947,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -966,7 +943,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -985,7 +962,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1004,7 +981,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="33" customHeight="1">
+    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1023,7 +1000,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="33" customHeight="1">
+    <row r="14" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1019,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1038,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="25.5">
+    <row r="16" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1082,7 +1059,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="25.5">
+    <row r="17" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1080,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="25.5">
+    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1101,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="25.5">
+    <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1143,9 +1120,6 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1153,14 +1127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4477B-54A4-44FB-9400-913F92230D27}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1169,7 +1143,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1160,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1195,7 +1169,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1204,7 +1178,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1213,7 +1187,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1222,7 +1196,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1238,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1257,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1276,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1295,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1314,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1359,7 +1333,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1354,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1373,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1392,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1437,11 +1411,8 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:H19">
+  <sortState ref="B10:H19">
     <sortCondition ref="B10:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1450,14 +1421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1466,7 +1437,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1454,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1492,7 +1463,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1501,7 +1472,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1510,7 +1481,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1519,7 +1490,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1561,7 +1532,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1572,18 +1543,26 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1573,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1605,15 +1584,15 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -1624,7 +1603,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1635,15 +1614,15 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -1654,15 +1633,15 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -1673,7 +1652,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1684,9 +1663,6 @@
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7BBE615-C214-4D20-9EF4-C53F2DE92FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{102529C8-67D6-41E5-BAA8-236267AEA240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>Resource Name</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Refined the Admin flow and started planning wireframes for forum</t>
+  </si>
+  <si>
+    <t>created wire frame for admin side -reviewer &amp;user verification view.</t>
+  </si>
+  <si>
+    <t>Discuss about user flow and create user flow diagram.Planning wire frame for admin side -reviewer &amp;user verification view.</t>
   </si>
   <si>
     <t>Created wireframe for Reviewer page,publish and report page.</t>
@@ -1169,7 +1175,7 @@
   <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1465,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1573,12 +1579,16 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="56.25" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1600,10 +1610,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -1619,10 +1629,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -1638,10 +1648,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -1668,10 +1678,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -1687,10 +1697,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102529C8-67D6-41E5-BAA8-236267AEA240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87340F7B-2620-4E60-95D8-B543CC968924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
   <si>
     <t>Resource Name</t>
   </si>
@@ -169,6 +169,15 @@
     <t>Discuss about user flow and create user flow diagram.Planning wire frame for admin side -reviewer &amp;user verification view.</t>
   </si>
   <si>
+    <t>Created Wireframe for Admin Dashboard overview page,Employees page .</t>
+  </si>
+  <si>
+    <t>I wrote Acceptance Criteria,Dependencies,constraints for Article reviewer</t>
+  </si>
+  <si>
+    <t>2,1.5,1.5,1</t>
+  </si>
+  <si>
     <t>Created wireframe for Reviewer page,publish and report page.</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
   </si>
   <si>
     <t>Refined query raiser flow and started planning wireframe for Login,Register page.</t>
+  </si>
+  <si>
+    <t>Created wrieframe for spamreports</t>
+  </si>
+  <si>
+    <t>I have created acceptance criteria , dependencies,constraints for Admin</t>
+  </si>
+  <si>
+    <t>1.5,1.5,1.5,1</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1490,7 @@
   <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1598,11 +1616,19 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" ht="39.75" customHeight="1">
@@ -1610,10 +1636,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -1629,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -1648,10 +1674,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -1678,10 +1704,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -1697,10 +1723,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -1715,11 +1741,19 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" ht="15"/>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87340F7B-2620-4E60-95D8-B543CC968924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04D5F86D-E171-48A3-AB1E-BBECD537CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
     <sheet name="05.04.2022" sheetId="41" r:id="rId2"/>
     <sheet name="06.04.2022" sheetId="42" r:id="rId3"/>
     <sheet name="07.04.2022" sheetId="43" r:id="rId4"/>
+    <sheet name="08.04.2022" sheetId="45" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="63">
   <si>
     <t>Resource Name</t>
   </si>
@@ -215,13 +216,22 @@
   </si>
   <si>
     <t>1.5,1.5,1.5,1</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Refined the wireframes of forum module like adding query page,Viewing specific query page and commenting to the query and search query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created wireframes for forum pages like query viewing,adding quering,reporting spam </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +285,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -307,11 +329,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -343,6 +402,41 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1763,4 +1857,387 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA977E4-D73A-4DCB-BEA4-AA6D942663EB}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="12"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="87" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="12"/>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="12"/>
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="12"/>
+      <c r="B14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12"/>
+      <c r="B15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="12"/>
+      <c r="B16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12"/>
+      <c r="B17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12"/>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30">
+      <c r="A19" s="12"/>
+      <c r="B19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{710590A1-40F1-4247-8EF9-0AE4A3AA5C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C009F250-3ACB-4EC1-A0EF-48343515C700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="81">
   <si>
     <t>Resource Name</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t xml:space="preserve">Redefined Wireframe for Reviewer Dashboard,Publish and Reject Page. </t>
+  </si>
+  <si>
+    <t> Created wireframe for Reviewer Dashboard</t>
+  </si>
+  <si>
+    <t> 6</t>
+  </si>
+  <si>
+    <t> 2</t>
   </si>
   <si>
     <t> Refined the WireFrames for Published Articles,Draft and Worked on entity model</t>
@@ -1628,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1908,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA977E4-D73A-4DCB-BEA4-AA6D942663EB}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15"/>
@@ -2138,7 +2147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="12"/>
       <c r="B14" s="17" t="s">
         <v>13</v>
@@ -2147,16 +2156,16 @@
         <v>60</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>60</v>
@@ -2168,16 +2177,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G15" s="18">
         <v>2</v>
@@ -2216,10 +2225,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>60</v>
@@ -2240,10 +2249,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>60</v>
@@ -2264,19 +2273,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>60</v>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57100DB1-6929-4F5F-8728-807472AE5F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D5425B-0F5A-43A6-A2F9-858AB0C219E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="06.04.2022" sheetId="42" r:id="rId3"/>
     <sheet name="07.04.2022" sheetId="43" r:id="rId4"/>
     <sheet name="08.04.2022" sheetId="45" r:id="rId5"/>
+    <sheet name="09.04.2022" sheetId="46" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="91">
   <si>
     <t>Resource Name</t>
   </si>
@@ -233,23 +234,89 @@
     <t> created wire frame for admin side -reviewer &amp;user verification view.</t>
   </si>
   <si>
-    <t> Refereing on Entity model</t>
+    <t>Work on entity model on Reviewer Dashboard.</t>
   </si>
   <si>
     <t xml:space="preserve">Redefined Wireframe for Reviewer Dashboard,Publish and Reject Page. </t>
   </si>
   <si>
+    <t> Created wireframe for Reviewer Dashboard</t>
+  </si>
+  <si>
+    <t> 6</t>
+  </si>
+  <si>
+    <t> 2</t>
+  </si>
+  <si>
+    <t> Refined the WireFrames for Published Articles,Draft and Worked on entity model</t>
+  </si>
+  <si>
+    <t> Created the wireframes for My Articles page,Published and Draft page and Create Articles Page</t>
+  </si>
+  <si>
+    <t>3,1,1</t>
+  </si>
+  <si>
     <t> Refined the wireframe for homepage, article page and added  pagenation and worked on entity model</t>
   </si>
   <si>
     <t>Created wireframe for homepage and article page</t>
+  </si>
+  <si>
+    <t> Refined the wieframe for Login and register page and worked on entity model on query raiser</t>
+  </si>
+  <si>
+    <t> Created wireframe for login and register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on entity model </t>
+  </si>
+  <si>
+    <t> Refined  the wireframe Spam query list and reported query list</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>Refining Admin page and worked on entity model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> created wire frame for admin side -reviewer &amp;user verification view</t>
+  </si>
+  <si>
+    <t>Work on entity model.</t>
+  </si>
+  <si>
+    <t>Refined the wireframe for Reviewer dashboard,Review page and Publish page</t>
+  </si>
+  <si>
+    <t>Refined The Wireframes based on the suggestions given, and Worked on Entity Models</t>
+  </si>
+  <si>
+    <t>2,1.5,2</t>
+  </si>
+  <si>
+    <t>Refined the wireframe for homepage,articlepage and worked on entity models</t>
+  </si>
+  <si>
+    <t>Refined the wireframe for homepage,profile page and article page</t>
+  </si>
+  <si>
+    <t>Refined made on login  and register wireframe and worked on entity model on query</t>
+  </si>
+  <si>
+    <t>Changes made on entity model and wireframe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +381,34 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,6 +551,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1881,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA977E4-D73A-4DCB-BEA4-AA6D942663EB}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15"/>
@@ -2063,7 +2187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="17" t="s">
         <v>11</v>
@@ -2102,7 +2226,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="18">
         <v>2</v>
@@ -2111,7 +2235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="12"/>
       <c r="B14" s="17" t="s">
         <v>13</v>
@@ -2120,40 +2244,40 @@
         <v>60</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="38.25">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>60</v>
@@ -2189,10 +2313,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>60</v>
@@ -2207,51 +2331,390 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="38.25">
       <c r="A18" s="12"/>
       <c r="B18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>60</v>
+      <c r="F18" s="18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8" ht="25.5">
       <c r="A19" s="12"/>
       <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H19" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25696A5-BAC8-430A-BEED-05F7BFE8E93D}">
+  <dimension ref="B1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="8" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" ht="45">
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="28"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="22"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="2:8" ht="45">
+      <c r="B9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="25.5">
+      <c r="B11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30">
+      <c r="B12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="25.5">
+      <c r="B13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="25.5">
+      <c r="B15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="25.5">
+      <c r="B17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="30">
+        <v>6</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="25.5">
+      <c r="B18" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="30">
+        <v>6</v>
+      </c>
+      <c r="G18" s="30">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="34" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D5425B-0F5A-43A6-A2F9-858AB0C219E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C440C33-F5D0-433F-93E4-9B074C7D952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="94">
   <si>
     <t>Resource Name</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>Changes made on entity model and wireframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Worked on Entity Models and Refining the wireframes</t>
+  </si>
+  <si>
+    <t>Refined wireframes on spam report list</t>
+  </si>
+  <si>
+    <t>2,2,1</t>
   </si>
 </sst>
 </file>
@@ -2388,13 +2397,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25696A5-BAC8-430A-BEED-05F7BFE8E93D}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="8" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" customWidth="1"/>
+    <col min="5" max="8" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -2584,12 +2596,14 @@
         <v>84</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F13" s="30">
+        <v>6</v>
+      </c>
+      <c r="G13" s="30">
         <v>1</v>
       </c>
-      <c r="G13" s="30"/>
       <c r="H13" s="23" t="s">
         <v>60</v>
       </c>
@@ -2703,17 +2717,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" ht="28.5" customHeight="1">
       <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="E19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="30">
+        <v>2</v>
+      </c>
       <c r="H19" s="34" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C440C33-F5D0-433F-93E4-9B074C7D952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AE7EFC-EAF0-4EE2-883E-9DD20079AEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="07.04.2022" sheetId="43" r:id="rId4"/>
     <sheet name="08.04.2022" sheetId="45" r:id="rId5"/>
     <sheet name="09.04.2022" sheetId="46" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="47" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="98">
   <si>
     <t>Resource Name</t>
   </si>
@@ -319,13 +320,25 @@
   </si>
   <si>
     <t>2,2,1</t>
+  </si>
+  <si>
+    <t>1.Refining Admin Dashboard Wireframe.  2.Discussing about Entity Data Model.            3.Started designing Data model</t>
+  </si>
+  <si>
+    <t> Completed Changes in Wireframe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2                                                             1                                                                2                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explored about Middlewares and Pipelines -1.5                                                                                </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,16 +432,34 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -488,11 +519,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -589,6 +664,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25696A5-BAC8-430A-BEED-05F7BFE8E93D}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2743,4 +2834,288 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B14D27-A155-49A8-BAE9-01782A2106DF}">
+  <dimension ref="F11:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="6:12" ht="45">
+      <c r="F11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="6:12">
+      <c r="F12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="6:12">
+      <c r="F13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="6:12">
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="6:12">
+      <c r="F15" s="22"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="6:12" ht="31.5">
+      <c r="F16" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12">
+      <c r="F17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12">
+      <c r="F18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" ht="51">
+      <c r="F19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" ht="30">
+      <c r="F20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="F21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12">
+      <c r="F22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12">
+      <c r="F23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12">
+      <c r="F24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12">
+      <c r="F25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" ht="30">
+      <c r="F26" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AE7EFC-EAF0-4EE2-883E-9DD20079AEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FE0550-33AC-4308-BE8C-9B1B2CCEC428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="101">
   <si>
     <t>Resource Name</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>2,2,1</t>
+  </si>
+  <si>
+    <t>Refined the Wireframes of Forum pages Like Adding query pageand viewing query page,Discussed about the data model entities and created the data model</t>
+  </si>
+  <si>
+    <t>Made the changes in the forum wireframe</t>
+  </si>
+  <si>
+    <t>Explored on data model and DBcontext -1</t>
   </si>
   <si>
     <t>1.Refining Admin Dashboard Wireframe.  2.Discussing about Entity Data Model.            3.Started designing Data model</t>
@@ -2841,7 +2850,7 @@
   <dimension ref="F11:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2947,17 +2956,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:12">
+    <row r="17" spans="6:12" ht="51">
       <c r="F17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>95</v>
+      </c>
       <c r="I17" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="J17" s="30">
+        <v>6</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>96</v>
+      </c>
       <c r="L17" s="23" t="s">
         <v>60</v>
       </c>
@@ -2982,19 +2999,19 @@
         <v>11</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L19" s="34" t="s">
         <v>60</v>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FE0550-33AC-4308-BE8C-9B1B2CCEC428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C8186E-853E-4288-8AF9-9624D2B1825E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="07.04.2022" sheetId="43" r:id="rId4"/>
     <sheet name="08.04.2022" sheetId="45" r:id="rId5"/>
     <sheet name="09.04.2022" sheetId="46" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="47" r:id="rId7"/>
+    <sheet name="11.04.2022" sheetId="47" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="104">
   <si>
     <t>Resource Name</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Explored about Middlewares and Pipelines -1.5                                                                                </t>
+  </si>
+  <si>
+    <t>Refined the Wireframes of Articles Page, Created MOM, Discussed the Data Models and created data models</t>
+  </si>
+  <si>
+    <t>Refined the changes in the Articles and forum Page</t>
+  </si>
+  <si>
+    <t>Explored on EAR -1</t>
   </si>
 </sst>
 </file>
@@ -2497,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25696A5-BAC8-430A-BEED-05F7BFE8E93D}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H19"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2849,15 +2858,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B14D27-A155-49A8-BAE9-01782A2106DF}">
   <dimension ref="F11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
@@ -2933,7 +2943,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="6:12" ht="31.5">
+    <row r="16" spans="6:12" ht="54.75" customHeight="1">
       <c r="F16" s="37" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:12" ht="51">
+    <row r="17" spans="6:12" ht="62.25" customHeight="1">
       <c r="F17" s="27" t="s">
         <v>9</v>
       </c>
@@ -2979,7 +2989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="6:12">
+    <row r="18" spans="6:12" ht="56.25" customHeight="1">
       <c r="F18" s="27" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +3004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="6:12" ht="51">
+    <row r="19" spans="6:12" ht="58.5" customHeight="1">
       <c r="F19" s="27" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +3027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="6:12" ht="30">
+    <row r="20" spans="6:12" ht="54.75" customHeight="1">
       <c r="F20" s="27" t="s">
         <v>12</v>
       </c>
@@ -3032,7 +3042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="6:12">
+    <row r="21" spans="6:12" ht="43.5" customHeight="1">
       <c r="F21" s="27" t="s">
         <v>13</v>
       </c>
@@ -3049,22 +3059,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="6:12">
+    <row r="22" spans="6:12" ht="46.5" customHeight="1">
       <c r="F22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="41"/>
+      <c r="G22" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>102</v>
+      </c>
       <c r="I22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="J22" s="30">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="L22" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="6:12">
+    <row r="23" spans="6:12" ht="40.5" customHeight="1">
       <c r="F23" s="27" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="6:12">
+    <row r="24" spans="6:12" ht="44.25" customHeight="1">
       <c r="F24" s="27" t="s">
         <v>16</v>
       </c>
@@ -3102,7 +3120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="6:12">
+    <row r="25" spans="6:12" ht="40.5" customHeight="1">
       <c r="F25" s="27" t="s">
         <v>17</v>
       </c>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D700D3A-9665-4AE0-B95B-6105280EFD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B517A6-025A-4C55-A7DC-64BC0032F003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="113">
   <si>
     <t>Resource Name</t>
   </si>
@@ -325,10 +325,13 @@
     <t>Refined the Wireframes of Forum pages Like Adding query pageand viewing query page,Discussed about the data model entities and created the data model</t>
   </si>
   <si>
-    <t>Made the changes in the forum wireframe</t>
-  </si>
-  <si>
-    <t>Explored on data model and DBcontext -1</t>
+    <t xml:space="preserve">Made the changes in the forum wireframe. Explored on data model and DBcontext </t>
+  </si>
+  <si>
+    <t>Refined Admin wireframe.Discussing about Entity Data Model.Started designing Data model</t>
+  </si>
+  <si>
+    <t>Made the changes in the admin wireframe</t>
   </si>
   <si>
     <t>1.Refining Admin Dashboard Wireframe.  2.Discussing about Entity Data Model.            3.Started designing Data model</t>
@@ -368,6 +371,12 @@
   </si>
   <si>
     <t>Updated wireframe for login and register</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dissued Data Models and created data models</t>
+  </si>
+  <si>
+    <t>Refined Spam report wireframe</t>
   </si>
 </sst>
 </file>
@@ -2876,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B14D27-A155-49A8-BAE9-01782A2106DF}">
   <dimension ref="F11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3000,8 +3009,8 @@
       <c r="J17" s="30">
         <v>6</v>
       </c>
-      <c r="K17" s="30" t="s">
-        <v>96</v>
+      <c r="K17" s="30">
+        <v>1</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>60</v>
@@ -3011,13 +3020,21 @@
       <c r="F18" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="I18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="J18" s="30">
+        <v>6</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1</v>
+      </c>
       <c r="L18" s="23" t="s">
         <v>60</v>
       </c>
@@ -3027,16 +3044,16 @@
         <v>11</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="30">
         <v>1.5</v>
@@ -3050,10 +3067,10 @@
         <v>12</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>60</v>
@@ -3073,10 +3090,10 @@
         <v>13</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I21" s="30" t="s">
         <v>60</v>
@@ -3096,10 +3113,10 @@
         <v>14</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>60</v>
@@ -3142,10 +3159,10 @@
         <v>16</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I24" s="30" t="s">
         <v>60</v>
@@ -3165,10 +3182,10 @@
         <v>17</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>60</v>
@@ -3183,13 +3200,21 @@
       <c r="F26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="30"/>
+      <c r="G26" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>112</v>
+      </c>
       <c r="I26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="J26" s="30">
+        <v>5</v>
+      </c>
+      <c r="K26" s="30">
+        <v>1</v>
+      </c>
       <c r="L26" s="34" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B517A6-025A-4C55-A7DC-64BC0032F003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99576D09-0AEF-49EE-B81F-E667942536C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
     <t>Updated wireframe for login and register</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dissued Data Models and created data models</t>
+    <t xml:space="preserve"> Discussed Data Models and created data models</t>
   </si>
   <si>
     <t>Refined Spam report wireframe</t>
@@ -2886,7 +2886,7 @@
   <dimension ref="F11:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3210,10 +3210,10 @@
         <v>60</v>
       </c>
       <c r="J26" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="34" t="s">
         <v>60</v>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99576D09-0AEF-49EE-B81F-E667942536C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5024DF2-6D77-4DD4-B019-DD3CD0BF6E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="08.04.2022" sheetId="45" r:id="rId5"/>
     <sheet name="09.04.2022" sheetId="46" r:id="rId6"/>
     <sheet name="11.04.2022" sheetId="47" r:id="rId7"/>
+    <sheet name="12.04.2022 " sheetId="49" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="117">
   <si>
     <t>Resource Name</t>
   </si>
@@ -377,6 +378,24 @@
   </si>
   <si>
     <t>Refined Spam report wireframe</t>
+  </si>
+  <si>
+    <t>1.Working on physical model,convert of conceptual model to physical model                                  2.refrained the changes of the filter in the wireframes</t>
+  </si>
+  <si>
+    <t>Brainstorming- 1hr
+Discussion about Data model-1hr
+Creation of user entity in Data model -1.30hr
+Refrained the data model -2hr
+Review Session with Rafi-1hr
+Discussed about the Changes need to done after Review -1hr
+Explored About Code First and DB first Approach-1hr</t>
+  </si>
+  <si>
+    <t>7.30 hours</t>
+  </si>
+  <si>
+    <t>1hour</t>
   </si>
 </sst>
 </file>
@@ -2885,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B14D27-A155-49A8-BAE9-01782A2106DF}">
   <dimension ref="F11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3222,4 +3241,286 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
+  <dimension ref="E11:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="6:12">
+      <c r="F11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="6:12">
+      <c r="F12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="6:12">
+      <c r="F13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="6:12">
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="6:12">
+      <c r="F15" s="22"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="6:12" ht="54.75" customHeight="1">
+      <c r="F16" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" ht="98.25" customHeight="1">
+      <c r="F17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" ht="56.25" customHeight="1">
+      <c r="F18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" ht="58.5" customHeight="1">
+      <c r="F19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" ht="54.75" customHeight="1">
+      <c r="F20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" ht="43.5" customHeight="1">
+      <c r="F21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" ht="46.5" customHeight="1">
+      <c r="F22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" ht="40.5" customHeight="1">
+      <c r="F23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" ht="44.25" customHeight="1">
+      <c r="F24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" ht="40.5" customHeight="1">
+      <c r="F25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" ht="30">
+      <c r="F26" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5024DF2-6D77-4DD4-B019-DD3CD0BF6E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DADB08-B3BE-47B5-B2D8-A06F7ED91D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="119">
   <si>
     <t>Resource Name</t>
   </si>
@@ -396,6 +396,18 @@
   </si>
   <si>
     <t>1hour</t>
+  </si>
+  <si>
+    <t>Identified operation for the entity in conceptual model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainstorming- 1hr
+Discussion about Data model-1hr
+Creation of Query entity in Data model -1.30hr
+Refrained the data model -2hr
+Review Session with Rafi-1hr
+Discussed about the Changes need to done after Review -1hr
+</t>
   </si>
 </sst>
 </file>
@@ -3247,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3490,17 +3502,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="6:12" ht="40.5" customHeight="1">
+    <row r="25" spans="6:12" ht="99" customHeight="1">
       <c r="F25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="30"/>
+      <c r="G25" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="I25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="30">
+        <v>1</v>
+      </c>
       <c r="L25" s="23" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DADB08-B3BE-47B5-B2D8-A06F7ED91D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E1244A-98B8-46B6-9A56-737A8E1D9A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="121">
   <si>
     <t>Resource Name</t>
   </si>
@@ -396,6 +396,17 @@
   </si>
   <si>
     <t>1hour</t>
+  </si>
+  <si>
+    <t>Worked on the convertion of conceptual model to logical model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brain stroming   -1hr
+Discussed about data model -1 hr
+Creation of Data table and check the data model flow -1 hr
+refined the Data Model -1 hr
+Session with Rafi - 1 hr
+Team discussion on the changes to be done after meeting -1 hr</t>
   </si>
   <si>
     <t>Identified operation for the entity in conceptual model</t>
@@ -643,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -756,6 +767,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2916,7 +2930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B14D27-A155-49A8-BAE9-01782A2106DF}">
   <dimension ref="F11:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -3259,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3434,7 +3448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="6:12" ht="43.5" customHeight="1">
+    <row r="21" spans="6:12" ht="38.25" customHeight="1">
       <c r="F21" s="27" t="s">
         <v>13</v>
       </c>
@@ -3449,17 +3463,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="6:12" ht="46.5" customHeight="1">
+    <row r="22" spans="6:12" ht="84" customHeight="1">
       <c r="F22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="41"/>
+      <c r="G22" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="I22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="J22" s="30">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30">
+        <v>2</v>
+      </c>
       <c r="L22" s="23" t="s">
         <v>60</v>
       </c>
@@ -3507,10 +3529,10 @@
         <v>17</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>60</v>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E1244A-98B8-46B6-9A56-737A8E1D9A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{415C2925-418A-4D83-8ABF-47478318F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="125">
   <si>
     <t>Resource Name</t>
   </si>
@@ -396,6 +396,18 @@
   </si>
   <si>
     <t>1hour</t>
+  </si>
+  <si>
+    <t>1.Working on Logical and physical model.                      2.Operations in Datamodel.</t>
+  </si>
+  <si>
+    <t>Brainstorming - 1 hr Datamodel(Discussion) - 1 hr  Creation of entity data model - 1 hrs  Data model Refined - 1 hr Session with rafi - 1 hr  Team discussion (After Review ) - 1 hr Work on</t>
+  </si>
+  <si>
+    <t>Created data models and relationship.</t>
+  </si>
+  <si>
+    <t>Refined wireframe for reviewer dashboard.</t>
   </si>
   <si>
     <t>Worked on the convertion of conceptual model to logical model.</t>
@@ -3273,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3422,7 +3434,9 @@
       <c r="F19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>117</v>
+      </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30" t="s">
         <v>60</v>
@@ -3433,12 +3447,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="6:12" ht="54.75" customHeight="1">
+    <row r="20" spans="6:12" ht="61.5" customHeight="1">
       <c r="F20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="I20" s="30" t="s">
         <v>60</v>
       </c>
@@ -3452,13 +3468,21 @@
       <c r="F21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="39"/>
+      <c r="G21" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="I21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="30">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30">
+        <v>1</v>
+      </c>
       <c r="L21" s="34" t="s">
         <v>60</v>
       </c>
@@ -3468,10 +3492,10 @@
         <v>14</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>60</v>
@@ -3529,10 +3553,10 @@
         <v>17</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>60</v>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415C2925-418A-4D83-8ABF-47478318F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15957987-F92F-4E44-A1E0-D84F08452A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="129">
   <si>
     <t>Resource Name</t>
   </si>
@@ -401,7 +401,19 @@
     <t>1.Working on Logical and physical model.                      2.Operations in Datamodel.</t>
   </si>
   <si>
-    <t>Brainstorming - 1 hr Datamodel(Discussion) - 1 hr  Creation of entity data model - 1 hrs  Data model Refined - 1 hr Session with rafi - 1 hr  Team discussion (After Review ) - 1 hr Work on</t>
+    <t xml:space="preserve">Discussion about DataModel  -  1hr                                                                           Createddatamodel for Article,Article-Comment,Article-Rating - 2hr                                       Mapped relationships between data models - 1.5hr                           Review Session with Rafi-1hr                                                                               Team Retrospecive meeting -1hr                                                                         Explored about Context classes in Entity Core - 1hr   </t>
+  </si>
+  <si>
+    <t>.  6.30 hours</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on  Operation in datamodel.              Conceptual model to logical.                                         </t>
+  </si>
+  <si>
+    <t>Datamodel(Discussion) - 1 hr                                                                   Creation of entity data model - 1 hrs                                                          Data model Refined - 1 hr                                                                                        Session with rafi - 1 hr                                                                                        Team discussion (After Review ) - 1 hr Work on</t>
   </si>
   <si>
     <t>Created data models and relationship.</t>
@@ -3285,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3437,23 +3449,31 @@
       <c r="G19" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="H19" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="I19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="J19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="L19" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="6:12" ht="61.5" customHeight="1">
+    <row r="20" spans="6:12" ht="82.5" customHeight="1">
       <c r="F20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="H20" s="30" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>60</v>
@@ -3469,10 +3489,10 @@
         <v>13</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I21" s="30" t="s">
         <v>60</v>
@@ -3492,10 +3512,10 @@
         <v>14</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>60</v>
@@ -3553,10 +3573,10 @@
         <v>17</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>60</v>

--- a/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15957987-F92F-4E44-A1E0-D84F08452A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CC1A08-2FED-4E12-A074-28706D1F18BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="134">
   <si>
     <t>Resource Name</t>
   </si>
@@ -410,7 +410,7 @@
     <t>1 hour</t>
   </si>
   <si>
-    <t xml:space="preserve">Working on  Operation in datamodel.              Conceptual model to logical.                                         </t>
+    <t xml:space="preserve">Working on  Operation in datamodel.              Conceptual model to Physical.                                         </t>
   </si>
   <si>
     <t>Datamodel(Discussion) - 1 hr                                                                   Creation of entity data model - 1 hrs                                                          Data model Refined - 1 hr                                                                                        Session with rafi - 1 hr                                                                                        Team discussion (After Review ) - 1 hr Work on</t>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>Refined wireframe for reviewer dashboard.</t>
+  </si>
+  <si>
+    <t>7:00 hours</t>
   </si>
   <si>
     <t>Worked on the convertion of conceptual model to logical model.</t>
@@ -431,6 +434,24 @@
 refined the Data Model -1 hr
 Session with Rafi - 1 hr
 Team discussion on the changes to be done after meeting -1 hr</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on logical model and physical model and operations.                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainstorming- 1hr
+Discussion about Data model-1hr
+Creation of article entity in Data model -1.30hr
+Refined the data model -1hr
+Review Session with Rafi-1hr
+Discussed about the Changes need to done after Review -1hr
+</t>
+  </si>
+  <si>
+    <t>6.30 hrs</t>
   </si>
   <si>
     <t>Identified operation for the entity in conceptual model</t>
@@ -3297,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="H21" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3497,11 +3518,11 @@
       <c r="I21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="30">
-        <v>7</v>
-      </c>
-      <c r="K21" s="30">
-        <v>1</v>
+      <c r="J21" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="L21" s="34" t="s">
         <v>60</v>
@@ -3512,19 +3533,19 @@
         <v>14</v>
       </c>
       <c r="G22" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="30">
-        <v>7</v>
-      </c>
-      <c r="K22" s="30">
-        <v>2</v>
+      <c r="K22" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>60</v>
@@ -3553,17 +3574,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="6:12" ht="44.25" customHeight="1">
+    <row r="24" spans="6:12" ht="87.75" customHeight="1">
       <c r="F24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="I24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="J24" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="30">
+        <v>0</v>
+      </c>
       <c r="L24" s="23" t="s">
         <v>60</v>
       </c>
@@ -3573,10 +3602,10 @@
         <v>17</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>60</v>
@@ -3584,8 +3613,8 @@
       <c r="J25" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="30">
-        <v>1</v>
+      <c r="K25" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>60</v>
